--- a/xlsx/维吾尔语_intext.xlsx
+++ b/xlsx/维吾尔语_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1015">
   <si>
     <t>维吾尔语</t>
   </si>
@@ -29,7 +29,7 @@
     <t>中华人民共和国</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_维吾尔语</t>
+    <t>政策_政策_维基百科_维吾尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -59,19 +59,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>官方語言列表</t>
+    <t>官方语言列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86%E7%B6%AD%E5%90%BE%E7%88%BE%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>新疆維吾爾自治區</t>
+    <t>新疆维吾尔自治区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_639-1</t>
@@ -125,7 +122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%BE%E7%88%BE%E4%BA%BA</t>
   </si>
   <si>
-    <t>維吾爾人</t>
+    <t>维吾尔人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%AD%97%E6%AF%8D</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%A9%9E</t>
   </si>
   <si>
-    <t>名詞</t>
+    <t>名词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0_(%E8%AF%AD%E6%B3%95)</t>
@@ -785,13 +782,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E6%A0%BC</t>
   </si>
   <si>
-    <t>賓格</t>
+    <t>宾格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%87%E6%A0%BC</t>
   </si>
   <si>
-    <t>與格</t>
+    <t>与格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E6%A0%BC</t>
@@ -815,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E8%A9%9E</t>
   </si>
   <si>
-    <t>動詞</t>
+    <t>动词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E6%80%81</t>
@@ -827,31 +824,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%9C%A8%E5%BC%8F</t>
   </si>
   <si>
-    <t>現在式</t>
+    <t>现在式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%8E%BB%E5%BC%8F</t>
   </si>
   <si>
-    <t>過去式</t>
+    <t>过去式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E8%A1%8C%E6%99%82%E6%85%8B</t>
   </si>
   <si>
-    <t>進行時態</t>
+    <t>进行时态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E6%B0%A3</t>
   </si>
   <si>
-    <t>語氣</t>
+    <t>语气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E6%85%8B</t>
   </si>
   <si>
-    <t>語態</t>
+    <t>语态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%AA%81%E5%8E%A5%E8%AF%AD</t>
@@ -863,55 +860,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>突厥語系</t>
+    <t>突厥语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BE%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>外來語</t>
+    <t>外来语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%9F%E5%90%88%E5%8F%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>察合台語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>哈薩克語</t>
+    <t>哈萨克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>烏茲別克語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>古蘭經</t>
+    <t>古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>波斯語</t>
+    <t>波斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E8%AF%AD</t>
@@ -923,49 +914,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>俄羅斯語</t>
+    <t>俄罗斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B9%B2%E8%AA%9E</t>
   </si>
   <si>
-    <t>東干語</t>
+    <t>东干语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%82%85</t>
   </si>
   <si>
-    <t>甘肅</t>
+    <t>甘肃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%9D%E8%A5%BF</t>
   </si>
   <si>
-    <t>陝西</t>
+    <t>陕西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9F%B3%E6%A8%99</t>
   </si>
   <si>
-    <t>國際音標</t>
+    <t>国际音标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%B0%93%E5%AE%BE%E7%BB%93%E6%9E%84</t>
@@ -977,13 +968,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%B6%B4</t>
   </si>
   <si>
-    <t>後綴</t>
+    <t>后缀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%A9%9E</t>
   </si>
   <si>
-    <t>代詞</t>
+    <t>代词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%AE%B9%E8%AF%8D</t>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://ug.wikipedia.org/wiki/</t>
@@ -1019,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>民族語</t>
+    <t>民族语</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Uyghur_dialects</t>
@@ -1043,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%BE%E7%88%BE%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>維吾爾字母</t>
+    <t>维吾尔字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E7%BB%B4%E6%96%87</t>
@@ -1067,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E6%BB%85%E4%BA%A1</t>
   </si>
   <si>
-    <t>語言滅亡</t>
+    <t>语言灭亡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Proto-Turkic_language</t>
@@ -1127,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E5%B9%B2%E7%B4%8D-%E6%AC%BD%E5%AF%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>費爾干納-欽察語</t>
+    <t>费尔干纳-钦察语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9E%91%E9%9D%BC%E8%AF%AD</t>
@@ -1139,9 +1130,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E8%AF%AD</t>
   </si>
   <si>
-    <t>哈萨克语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E8%AF%AD</t>
   </si>
   <si>
@@ -1151,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%93%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>諾蓋語</t>
+    <t>诺盖语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E5%8D%A1%E5%B0%94%E5%B8%95%E5%85%8B%E8%AF%AD</t>
@@ -1187,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%A2%85%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>庫梅克語</t>
+    <t>库梅克语</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Baraba_language</t>
@@ -1205,19 +1193,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%B1%B3%E4%BA%9E%E9%9F%83%E9%9D%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>克里米亞韃靼語</t>
+    <t>克里米亚鞑靼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%8F%A4%E6%96%AF%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>烏古斯語支</t>
+    <t>乌古斯语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%88%87%E6%B6%85%E6%A0%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>佩切涅格語</t>
+    <t>佩切涅格语</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Old_Anatolian_Turkish</t>
@@ -1247,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%91%8A%E8%8C%B2%E8%AA%9E</t>
   </si>
   <si>
-    <t>加告茲語</t>
+    <t>加告兹语</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Balkan_Gagauz_Turkish</t>
@@ -1265,13 +1253,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A4%AB%E6%B2%99%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿夫沙爾語</t>
+    <t>阿夫沙尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E4%BB%80%E5%8A%A0%E8%AA%9E</t>
   </si>
   <si>
-    <t>卡什加語</t>
+    <t>卡什加语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E6%8B%89%E8%AF%AD</t>
@@ -1289,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>西伯利亞語支</t>
+    <t>西伯利亚语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B3%B0%E8%AF%AD</t>
@@ -1301,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E5%88%A9%E5%A7%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>楚利姆語</t>
+    <t>楚利姆语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%B0%94%E5%B9%B2%E8%AF%AD</t>
@@ -1331,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>圖法語</t>
+    <t>图法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E8%AF%AD</t>
@@ -1373,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E7%93%A6%E4%BB%80%E8%AA%9E</t>
   </si>
   <si>
-    <t>楚瓦什語</t>
+    <t>楚瓦什语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E8%AF%AD</t>
@@ -1385,19 +1373,19 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%B8%AD%E5%9C%8B%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>Template talk-中國語言</t>
+    <t>Template talk-中国语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>中國語言</t>
+    <t>中国语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%97%8F%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>漢藏語系</t>
+    <t>汉藏语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E6%97%8F</t>
@@ -1409,19 +1397,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>官話</t>
+    <t>官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%A8%99%E6%BA%96%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>現代標準漢語</t>
+    <t>现代标准汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>北京官話</t>
+    <t>北京官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97%E5%AE%98%E8%AF%9D</t>
@@ -1445,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8E%9F%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>中原官話</t>
+    <t>中原官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E9%93%B6%E5%AE%98%E8%AF%9D</t>
@@ -1457,13 +1445,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%B7%AE%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>江淮官話</t>
+    <t>江淮官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>西南官話</t>
+    <t>西南官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%8B%E8%AF%AD</t>
@@ -1481,19 +1469,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E6%A2%81%E7%89%87</t>
   </si>
   <si>
-    <t>呂梁片</t>
+    <t>吕梁片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E9%BB%A8%E7%89%87</t>
   </si>
   <si>
-    <t>上黨片</t>
+    <t>上党片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%87%BA%E7%89%87</t>
   </si>
   <si>
-    <t>五臺片</t>
+    <t>五台片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%AF%E6%96%B0%E7%89%87</t>
@@ -1511,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%91%BC%E7%89%87</t>
   </si>
   <si>
-    <t>張呼片</t>
+    <t>张呼片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E5%BB%B6%E7%89%87</t>
@@ -1529,19 +1517,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩南語</t>
+    <t>闽南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8C%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩北語</t>
+    <t>闽北语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E6%9D%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩東語</t>
+    <t>闽东语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%BD%E4%B8%AD%E8%AF%AD</t>
@@ -1553,19 +1541,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%86%E4%BB%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>莆仙語</t>
+    <t>莆仙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%B5%E5%B0%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>邵將語</t>
+    <t>邵将语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%E9%9B%B7%E8%A9%B1</t>
   </si>
   <si>
-    <t>瓊雷話</t>
+    <t>琼雷话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%BC%E6%96%87%E7%89%87</t>
@@ -1619,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E9%BA%97%E7%89%87</t>
   </si>
   <si>
-    <t>上麗片</t>
+    <t>上丽片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E5%B7%9E%E7%89%87</t>
@@ -1637,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>湘語</t>
+    <t>湘语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B0%E6%BA%86%E7%89%87</t>
@@ -1655,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9B%E8%AA%9E</t>
   </si>
   <si>
-    <t>贛語</t>
+    <t>赣语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8C%E9%83%BD%E7%89%87</t>
@@ -1667,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E7%80%8F%E7%89%87</t>
   </si>
   <si>
-    <t>宜瀏片</t>
+    <t>宜浏片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%8C%B6%E7%89%87</t>
@@ -1679,13 +1667,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%AB%E5%BB%A3%E7%89%87</t>
   </si>
   <si>
-    <t>撫廣片</t>
+    <t>抚广片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B7%B9%E5%BC%8B%E7%89%87</t>
   </si>
   <si>
-    <t>鷹弋片</t>
+    <t>鹰弋片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%80%9A%E7%89%87</t>
@@ -1697,19 +1685,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%92%E8%B3%87%E7%89%87</t>
   </si>
   <si>
-    <t>耒資片</t>
+    <t>耒资片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E5%B6%BD%E7%89%87</t>
   </si>
   <si>
-    <t>懷嶽片</t>
+    <t>怀岳片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E7%B6%8F%E7%89%87</t>
   </si>
   <si>
-    <t>洞綏片</t>
+    <t>洞绥片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%AF%AD</t>
@@ -1721,13 +1709,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E5%8F%B0%E7%89%87</t>
   </si>
   <si>
-    <t>粵台片</t>
+    <t>粤台片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E4%B8%AD%E7%89%87</t>
   </si>
   <si>
-    <t>粵中片</t>
+    <t>粤中片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%80%E5%B7%9E%E7%89%87</t>
@@ -1739,31 +1727,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A7%E9%BE%8D%E7%89%87</t>
   </si>
   <si>
-    <t>寧龍片</t>
+    <t>宁龙片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85%E9%BC%93%E7%89%87</t>
   </si>
   <si>
-    <t>銅鼓片</t>
+    <t>铜鼓片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E5%8C%97%E7%89%87</t>
   </si>
   <si>
-    <t>粵北片</t>
+    <t>粤北片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%A5%BF%E7%89%87</t>
   </si>
   <si>
-    <t>粵西片</t>
+    <t>粤西片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A5%92%E5%B9%B3%E5%AE%A2%E5%AE%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>饒平客家語</t>
+    <t>饶平客家语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%A4%E8%AF%AD</t>
@@ -1775,13 +1763,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%B5%B7%E7%89%87</t>
   </si>
   <si>
-    <t>粵海片</t>
+    <t>粤海片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%9E%E5%AF%B6%E7%89%87</t>
   </si>
   <si>
-    <t>莞寶片</t>
+    <t>莞宝片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%BE%E6%BC%8F%E7%89%87</t>
@@ -1805,13 +1793,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E8%A5%BF%E5%B9%B3%E8%A9%B1</t>
   </si>
   <si>
-    <t>廣西平話</t>
+    <t>广西平话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E5%8C%97%E5%9C%9F%E8%A9%B1</t>
   </si>
   <si>
-    <t>粵北土話</t>
+    <t>粤北土话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%98%E5%8D%97%E5%9C%9F%E8%AF%9D</t>
@@ -1859,13 +1847,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E5%AE%B6%E8%A9%B1</t>
   </si>
   <si>
-    <t>蔡家話</t>
+    <t>蔡家话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E9%A6%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>富馬話</t>
+    <t>富马话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%9C%80%E8%AF%AD</t>
@@ -1877,13 +1865,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%85%92%E8%A8%80%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢兒言語</t>
+    <t>汉儿言语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E8%AA%9E</t>
   </si>
   <si>
-    <t>楚語</t>
+    <t>楚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E7%91%B6%E8%AF%AD%E6%97%8F</t>
@@ -1985,7 +1973,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%A4%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>布央語</t>
+    <t>布央语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%A0%87%E8%AF%AD</t>
@@ -1997,13 +1985,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A1%E9%9A%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>仡隆語</t>
+    <t>仡隆语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E4%BD%AC%E8%AA%9E</t>
   </si>
   <si>
-    <t>木佬語</t>
+    <t>木佬语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%BF%E8%AF%AD</t>
@@ -2057,13 +2045,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%AF%E5%83%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>佯僙語</t>
+    <t>佯僙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AF%E6%B3%B0%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>壯泰語支</t>
+    <t>壮泰语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AE%E8%AF%AD</t>
@@ -2087,13 +2075,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>儂語</t>
+    <t>侬语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E9%AB%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>臨高語</t>
+    <t>临高语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AF%AD</t>
@@ -2111,7 +2099,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%A3%E4%BB%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>傣仂語</t>
+    <t>傣仂语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E9%87%91%E5%82%A3%E8%AF%AD</t>
@@ -2147,7 +2135,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%8C%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>加茂語</t>
+    <t>加茂语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E7%BC%85%E8%AF%AD%E6%97%8F</t>
@@ -2165,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>藏語支</t>
+    <t>藏语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AF%AD</t>
@@ -2177,7 +2165,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E8%97%8F%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>衛藏方言</t>
+    <t>卫藏方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%96%B9%E8%A8%80</t>
@@ -2285,7 +2273,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%BE%E8%98%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>爾蘇語</t>
+    <t>尔苏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E8%A5%BF%E8%AF%AD</t>
@@ -2297,25 +2285,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%9C%A8%E4%BE%9D%E8%AA%9E</t>
   </si>
   <si>
-    <t>納木依語</t>
+    <t>纳木依语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%88%88%E8%AA%9E</t>
   </si>
   <si>
-    <t>史興語</t>
+    <t>史兴语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%BD%9D%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>緬彝語群</t>
+    <t>缅彝语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%9D%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>彝語支</t>
+    <t>彝语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%9D%E8%AF%AD</t>
@@ -2375,13 +2363,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%A5%9C%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉祜語</t>
+    <t>拉祜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%AB%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>基諾語</t>
+    <t>基诺语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%92%E8%8B%8F%E8%AF%AD</t>
@@ -2417,7 +2405,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>緬語支</t>
+    <t>缅语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BD%E7%93%A6%E8%AF%AD</t>
@@ -2453,7 +2441,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%AA%9E</t>
   </si>
   <si>
-    <t>白語</t>
+    <t>白语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E8%AF%AD%E7%BE%A4</t>
@@ -2519,7 +2507,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%BE%8D%E8%AA%9E</t>
   </si>
   <si>
-    <t>蘇龍語</t>
+    <t>苏龙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%89%E9%83%BD-%E8%BE%BE%E8%AE%A9%E8%AF%AD%E6%94%AF</t>
@@ -2567,7 +2555,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E7%B4%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>回紇語</t>
+    <t>回纥语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%99%80</t>
@@ -2663,7 +2651,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E6%B4%B2%E8%AA%9E</t>
   </si>
   <si>
-    <t>滿洲語</t>
+    <t>满洲语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E4%BC%AF%E8%AF%AD</t>
@@ -2693,19 +2681,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E7%9C%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>女真語</t>
+    <t>女真语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B6%E4%BD%99%EF%BC%8D%E6%96%B0%E7%BD%97%E8%AF%AD%E7%B3%BB</t>
   </si>
   <si>
-    <t>扶余－新罗语系</t>
+    <t>扶馀－新罗语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>中國朝鮮語</t>
+    <t>中国朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8F%A5%E4%B8%BD%E8%AF%AD</t>
@@ -2717,13 +2705,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A4%E6%B5%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>渤海語</t>
+    <t>渤海语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>南島語系</t>
+    <t>南岛语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5-%E6%B3%A2%E5%88%A9%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%AF%AD%E6%97%8F</t>
@@ -2735,43 +2723,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E8%BC%9D%E8%A9%B1</t>
   </si>
   <si>
-    <t>回輝話</t>
+    <t>回辉话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%82%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>達悟語</t>
+    <t>达悟语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%8D%97%E5%B3%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>台灣南島語言</t>
+    <t>台湾南岛语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E9%9B%85%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>泰雅語群</t>
+    <t>泰雅语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%81%A3%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>排灣語群</t>
+    <t>排湾语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%92%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>鄒語群</t>
+    <t>邹语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%87%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>魯凱語</t>
+    <t>鲁凯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A%E8%AF%AD%E7%B3%BB</t>
@@ -2783,7 +2771,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E8%AA%9E</t>
   </si>
   <si>
-    <t>京語</t>
+    <t>京语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
@@ -2813,7 +2801,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A4%E8%AA%9E</t>
   </si>
   <si>
-    <t>佤語</t>
+    <t>佤语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E8%AF%AD</t>
@@ -2867,9 +2855,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AF%AD</t>
   </si>
   <si>
-    <t>波斯语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%89%8C%E5%AD%90%E6%A8%A1%E8%AF%AD</t>
   </si>
   <si>
@@ -2915,9 +2900,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E6%97%8F</t>
   </si>
   <si>
@@ -2945,13 +2927,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%92%E8%A9%B1</t>
   </si>
   <si>
-    <t>誒話</t>
+    <t>诶话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%B1%AF%E8%A9%B1</t>
   </si>
   <si>
-    <t>五屯話</t>
+    <t>五屯话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AB%E5%AE%B6%E8%AF%9D</t>
@@ -2975,7 +2957,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%9C%9F%E7%94%9F%E8%91%A1%E8%AA%9E</t>
   </si>
   <si>
-    <t>澳門土生葡語</t>
+    <t>澳门土生葡语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E6%B3%BE%E6%B5%9C%E8%8B%B1%E8%AF%AD</t>
@@ -2993,7 +2975,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E5%A5%B4%E8%AA%9E</t>
   </si>
   <si>
-    <t>匈奴語</t>
+    <t>匈奴语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%A4%B7%E8%AF%AD</t>
@@ -3005,19 +2987,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>手語</t>
+    <t>手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>中國手語</t>
+    <t>中国手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>香港手語</t>
+    <t>香港手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AF%AD%E6%89%8B%E8%AF%AD</t>
@@ -3041,25 +3023,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E9%9B%99%E6%8B%BC%E7%9B%B2%E6%96%87</t>
   </si>
   <si>
-    <t>漢語雙拼盲文</t>
+    <t>汉语双拼盲文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AA%9E%E7%9B%B2%E6%96%87</t>
   </si>
   <si>
-    <t>藏語盲文</t>
+    <t>藏语盲文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E8%B7%A1%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>絕跡語言</t>
+    <t>绝迹语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3071,13 +3053,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3651,7 +3633,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -3677,10 +3659,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -3706,10 +3688,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -3735,10 +3717,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -3764,10 +3746,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -3793,10 +3775,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -3822,10 +3804,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -3851,10 +3833,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>12</v>
@@ -3880,10 +3862,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -3909,10 +3891,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -3938,10 +3920,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3967,10 +3949,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3996,10 +3978,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -4025,10 +4007,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -4054,10 +4036,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -4083,10 +4065,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
         <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -4112,10 +4094,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -4141,10 +4123,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>11</v>
@@ -4170,10 +4152,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -4199,10 +4181,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -4228,10 +4210,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -4257,10 +4239,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -4286,10 +4268,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>12</v>
@@ -4315,10 +4297,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -4344,10 +4326,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -4373,10 +4355,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>12</v>
@@ -4402,10 +4384,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -4431,10 +4413,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>10</v>
@@ -4460,10 +4442,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -4489,10 +4471,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -4518,10 +4500,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -4547,10 +4529,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -4576,10 +4558,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>28</v>
@@ -4605,10 +4587,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>423</v>
@@ -4634,10 +4616,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>21</v>
@@ -4663,10 +4645,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>59</v>
@@ -4692,10 +4674,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -4721,10 +4703,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s">
         <v>81</v>
-      </c>
-      <c r="F45" t="s">
-        <v>82</v>
       </c>
       <c r="G45" t="n">
         <v>18</v>
@@ -4750,10 +4732,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
         <v>83</v>
-      </c>
-      <c r="F46" t="s">
-        <v>84</v>
       </c>
       <c r="G46" t="n">
         <v>19</v>
@@ -4779,10 +4761,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" t="s">
         <v>83</v>
-      </c>
-      <c r="F47" t="s">
-        <v>84</v>
       </c>
       <c r="G47" t="n">
         <v>181</v>
@@ -4808,10 +4790,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" t="s">
         <v>85</v>
-      </c>
-      <c r="F48" t="s">
-        <v>86</v>
       </c>
       <c r="G48" t="n">
         <v>28</v>
@@ -4837,10 +4819,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" t="s">
         <v>85</v>
-      </c>
-      <c r="F49" t="s">
-        <v>86</v>
       </c>
       <c r="G49" t="n">
         <v>611</v>
@@ -4866,10 +4848,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" t="s">
         <v>87</v>
-      </c>
-      <c r="F50" t="s">
-        <v>88</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4895,10 +4877,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" t="s">
         <v>87</v>
-      </c>
-      <c r="F51" t="s">
-        <v>88</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -4924,10 +4906,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" t="s">
         <v>89</v>
-      </c>
-      <c r="F52" t="s">
-        <v>90</v>
       </c>
       <c r="G52" t="n">
         <v>12</v>
@@ -4953,10 +4935,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" t="s">
         <v>89</v>
-      </c>
-      <c r="F53" t="s">
-        <v>90</v>
       </c>
       <c r="G53" t="n">
         <v>61</v>
@@ -4982,10 +4964,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" t="s">
         <v>91</v>
-      </c>
-      <c r="F54" t="s">
-        <v>92</v>
       </c>
       <c r="G54" t="n">
         <v>7</v>
@@ -5011,10 +4993,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" t="s">
         <v>91</v>
-      </c>
-      <c r="F55" t="s">
-        <v>92</v>
       </c>
       <c r="G55" t="n">
         <v>237</v>
@@ -5040,10 +5022,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" t="s">
         <v>93</v>
-      </c>
-      <c r="F56" t="s">
-        <v>94</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -5069,10 +5051,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" t="s">
         <v>93</v>
-      </c>
-      <c r="F57" t="s">
-        <v>94</v>
       </c>
       <c r="G57" t="n">
         <v>13</v>
@@ -5098,10 +5080,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" t="s">
         <v>95</v>
-      </c>
-      <c r="F58" t="s">
-        <v>96</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
@@ -5127,10 +5109,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" t="s">
         <v>95</v>
-      </c>
-      <c r="F59" t="s">
-        <v>96</v>
       </c>
       <c r="G59" t="n">
         <v>113</v>
@@ -5156,10 +5138,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" t="s">
         <v>97</v>
-      </c>
-      <c r="F60" t="s">
-        <v>98</v>
       </c>
       <c r="G60" t="n">
         <v>34</v>
@@ -5185,10 +5167,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" t="s">
         <v>97</v>
-      </c>
-      <c r="F61" t="s">
-        <v>98</v>
       </c>
       <c r="G61" t="n">
         <v>379</v>
@@ -5214,10 +5196,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" t="s">
         <v>99</v>
-      </c>
-      <c r="F62" t="s">
-        <v>100</v>
       </c>
       <c r="G62" t="n">
         <v>7</v>
@@ -5243,10 +5225,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" t="s">
         <v>99</v>
-      </c>
-      <c r="F63" t="s">
-        <v>100</v>
       </c>
       <c r="G63" t="n">
         <v>12</v>
@@ -5272,10 +5254,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" t="s">
         <v>101</v>
-      </c>
-      <c r="F64" t="s">
-        <v>102</v>
       </c>
       <c r="G64" t="n">
         <v>10</v>
@@ -5301,10 +5283,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" t="s">
         <v>101</v>
-      </c>
-      <c r="F65" t="s">
-        <v>102</v>
       </c>
       <c r="G65" t="n">
         <v>69</v>
@@ -5330,10 +5312,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" t="s">
         <v>103</v>
-      </c>
-      <c r="F66" t="s">
-        <v>104</v>
       </c>
       <c r="G66" t="n">
         <v>32</v>
@@ -5359,10 +5341,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67" t="s">
         <v>103</v>
-      </c>
-      <c r="F67" t="s">
-        <v>104</v>
       </c>
       <c r="G67" t="n">
         <v>264</v>
@@ -5388,10 +5370,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" t="s">
         <v>105</v>
-      </c>
-      <c r="F68" t="s">
-        <v>106</v>
       </c>
       <c r="G68" t="n">
         <v>20</v>
@@ -5417,10 +5399,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>104</v>
+      </c>
+      <c r="F69" t="s">
         <v>105</v>
-      </c>
-      <c r="F69" t="s">
-        <v>106</v>
       </c>
       <c r="G69" t="n">
         <v>143</v>
@@ -5446,10 +5428,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" t="s">
         <v>107</v>
-      </c>
-      <c r="F70" t="s">
-        <v>108</v>
       </c>
       <c r="G70" t="n">
         <v>33</v>
@@ -5475,10 +5457,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" t="s">
         <v>107</v>
-      </c>
-      <c r="F71" t="s">
-        <v>108</v>
       </c>
       <c r="G71" t="n">
         <v>293</v>
@@ -5504,10 +5486,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" t="s">
         <v>109</v>
-      </c>
-      <c r="F72" t="s">
-        <v>110</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5533,10 +5515,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" t="s">
         <v>109</v>
-      </c>
-      <c r="F73" t="s">
-        <v>110</v>
       </c>
       <c r="G73" t="n">
         <v>40</v>
@@ -5562,10 +5544,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" t="s">
         <v>111</v>
-      </c>
-      <c r="F74" t="s">
-        <v>112</v>
       </c>
       <c r="G74" t="n">
         <v>18</v>
@@ -5591,10 +5573,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>110</v>
+      </c>
+      <c r="F75" t="s">
         <v>111</v>
-      </c>
-      <c r="F75" t="s">
-        <v>112</v>
       </c>
       <c r="G75" t="n">
         <v>263</v>
@@ -5620,10 +5602,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" t="s">
         <v>113</v>
-      </c>
-      <c r="F76" t="s">
-        <v>114</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5649,10 +5631,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" t="s">
         <v>113</v>
-      </c>
-      <c r="F77" t="s">
-        <v>114</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -5678,10 +5660,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" t="s">
         <v>115</v>
-      </c>
-      <c r="F78" t="s">
-        <v>116</v>
       </c>
       <c r="G78" t="n">
         <v>32</v>
@@ -5707,10 +5689,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" t="s">
         <v>115</v>
-      </c>
-      <c r="F79" t="s">
-        <v>116</v>
       </c>
       <c r="G79" t="n">
         <v>146</v>
@@ -5736,10 +5718,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>116</v>
+      </c>
+      <c r="F80" t="s">
         <v>117</v>
-      </c>
-      <c r="F80" t="s">
-        <v>118</v>
       </c>
       <c r="G80" t="n">
         <v>10</v>
@@ -5765,10 +5747,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81" t="s">
         <v>117</v>
-      </c>
-      <c r="F81" t="s">
-        <v>118</v>
       </c>
       <c r="G81" t="n">
         <v>13</v>
@@ -5794,10 +5776,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" t="s">
         <v>119</v>
-      </c>
-      <c r="F82" t="s">
-        <v>120</v>
       </c>
       <c r="G82" t="n">
         <v>25</v>
@@ -5823,10 +5805,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>118</v>
+      </c>
+      <c r="F83" t="s">
         <v>119</v>
-      </c>
-      <c r="F83" t="s">
-        <v>120</v>
       </c>
       <c r="G83" t="n">
         <v>276</v>
@@ -5852,10 +5834,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>120</v>
+      </c>
+      <c r="F84" t="s">
         <v>121</v>
-      </c>
-      <c r="F84" t="s">
-        <v>122</v>
       </c>
       <c r="G84" t="n">
         <v>37</v>
@@ -5881,10 +5863,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" t="s">
         <v>121</v>
-      </c>
-      <c r="F85" t="s">
-        <v>122</v>
       </c>
       <c r="G85" t="n">
         <v>282</v>
@@ -5910,10 +5892,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>122</v>
+      </c>
+      <c r="F86" t="s">
         <v>123</v>
-      </c>
-      <c r="F86" t="s">
-        <v>124</v>
       </c>
       <c r="G86" t="n">
         <v>5</v>
@@ -5939,10 +5921,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>122</v>
+      </c>
+      <c r="F87" t="s">
         <v>123</v>
-      </c>
-      <c r="F87" t="s">
-        <v>124</v>
       </c>
       <c r="G87" t="n">
         <v>16</v>
@@ -5968,10 +5950,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" t="s">
         <v>125</v>
-      </c>
-      <c r="F88" t="s">
-        <v>126</v>
       </c>
       <c r="G88" t="n">
         <v>56</v>
@@ -5997,10 +5979,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" t="s">
         <v>125</v>
-      </c>
-      <c r="F89" t="s">
-        <v>126</v>
       </c>
       <c r="G89" t="n">
         <v>413</v>
@@ -6026,10 +6008,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" t="s">
         <v>127</v>
-      </c>
-      <c r="F90" t="s">
-        <v>128</v>
       </c>
       <c r="G90" t="n">
         <v>35</v>
@@ -6055,10 +6037,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" t="s">
         <v>127</v>
-      </c>
-      <c r="F91" t="s">
-        <v>128</v>
       </c>
       <c r="G91" t="n">
         <v>196</v>
@@ -6084,10 +6066,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>128</v>
+      </c>
+      <c r="F92" t="s">
         <v>129</v>
-      </c>
-      <c r="F92" t="s">
-        <v>130</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6113,10 +6095,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>128</v>
+      </c>
+      <c r="F93" t="s">
         <v>129</v>
-      </c>
-      <c r="F93" t="s">
-        <v>130</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6142,10 +6124,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" t="s">
         <v>131</v>
-      </c>
-      <c r="F94" t="s">
-        <v>132</v>
       </c>
       <c r="G94" t="n">
         <v>9</v>
@@ -6171,10 +6153,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>130</v>
+      </c>
+      <c r="F95" t="s">
         <v>131</v>
-      </c>
-      <c r="F95" t="s">
-        <v>132</v>
       </c>
       <c r="G95" t="n">
         <v>119</v>
@@ -6200,10 +6182,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" t="s">
         <v>133</v>
-      </c>
-      <c r="F96" t="s">
-        <v>134</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -6229,10 +6211,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>132</v>
+      </c>
+      <c r="F97" t="s">
         <v>133</v>
-      </c>
-      <c r="F97" t="s">
-        <v>134</v>
       </c>
       <c r="G97" t="n">
         <v>61</v>
@@ -6258,10 +6240,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>134</v>
+      </c>
+      <c r="F98" t="s">
         <v>135</v>
-      </c>
-      <c r="F98" t="s">
-        <v>136</v>
       </c>
       <c r="G98" t="n">
         <v>15</v>
@@ -6287,10 +6269,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>134</v>
+      </c>
+      <c r="F99" t="s">
         <v>135</v>
-      </c>
-      <c r="F99" t="s">
-        <v>136</v>
       </c>
       <c r="G99" t="n">
         <v>78</v>
@@ -6316,10 +6298,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>136</v>
+      </c>
+      <c r="F100" t="s">
         <v>137</v>
-      </c>
-      <c r="F100" t="s">
-        <v>138</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -6345,10 +6327,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>136</v>
+      </c>
+      <c r="F101" t="s">
         <v>137</v>
-      </c>
-      <c r="F101" t="s">
-        <v>138</v>
       </c>
       <c r="G101" t="n">
         <v>42</v>
@@ -6374,10 +6356,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>138</v>
+      </c>
+      <c r="F102" t="s">
         <v>139</v>
-      </c>
-      <c r="F102" t="s">
-        <v>140</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6403,10 +6385,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103" t="s">
         <v>139</v>
-      </c>
-      <c r="F103" t="s">
-        <v>140</v>
       </c>
       <c r="G103" t="n">
         <v>18</v>
@@ -6432,10 +6414,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>140</v>
+      </c>
+      <c r="F104" t="s">
         <v>141</v>
-      </c>
-      <c r="F104" t="s">
-        <v>142</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6461,10 +6443,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>140</v>
+      </c>
+      <c r="F105" t="s">
         <v>141</v>
-      </c>
-      <c r="F105" t="s">
-        <v>142</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -6490,10 +6472,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>142</v>
+      </c>
+      <c r="F106" t="s">
         <v>143</v>
-      </c>
-      <c r="F106" t="s">
-        <v>144</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6519,10 +6501,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>142</v>
+      </c>
+      <c r="F107" t="s">
         <v>143</v>
-      </c>
-      <c r="F107" t="s">
-        <v>144</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6548,10 +6530,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>144</v>
+      </c>
+      <c r="F108" t="s">
         <v>145</v>
-      </c>
-      <c r="F108" t="s">
-        <v>146</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6577,10 +6559,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>144</v>
+      </c>
+      <c r="F109" t="s">
         <v>145</v>
-      </c>
-      <c r="F109" t="s">
-        <v>146</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -6606,10 +6588,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>146</v>
+      </c>
+      <c r="F110" t="s">
         <v>147</v>
-      </c>
-      <c r="F110" t="s">
-        <v>148</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6635,10 +6617,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>146</v>
+      </c>
+      <c r="F111" t="s">
         <v>147</v>
-      </c>
-      <c r="F111" t="s">
-        <v>148</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6664,10 +6646,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>148</v>
+      </c>
+      <c r="F112" t="s">
         <v>149</v>
-      </c>
-      <c r="F112" t="s">
-        <v>150</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6693,10 +6675,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>148</v>
+      </c>
+      <c r="F113" t="s">
         <v>149</v>
-      </c>
-      <c r="F113" t="s">
-        <v>150</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -6722,10 +6704,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>150</v>
+      </c>
+      <c r="F114" t="s">
         <v>151</v>
-      </c>
-      <c r="F114" t="s">
-        <v>152</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6751,10 +6733,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>150</v>
+      </c>
+      <c r="F115" t="s">
         <v>151</v>
-      </c>
-      <c r="F115" t="s">
-        <v>152</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
@@ -6780,10 +6762,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>152</v>
+      </c>
+      <c r="F116" t="s">
         <v>153</v>
-      </c>
-      <c r="F116" t="s">
-        <v>154</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6809,10 +6791,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>152</v>
+      </c>
+      <c r="F117" t="s">
         <v>153</v>
-      </c>
-      <c r="F117" t="s">
-        <v>154</v>
       </c>
       <c r="G117" t="n">
         <v>6</v>
@@ -6838,10 +6820,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>154</v>
+      </c>
+      <c r="F118" t="s">
         <v>155</v>
-      </c>
-      <c r="F118" t="s">
-        <v>156</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6867,10 +6849,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>154</v>
+      </c>
+      <c r="F119" t="s">
         <v>155</v>
-      </c>
-      <c r="F119" t="s">
-        <v>156</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6896,10 +6878,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>156</v>
+      </c>
+      <c r="F120" t="s">
         <v>157</v>
-      </c>
-      <c r="F120" t="s">
-        <v>158</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6925,10 +6907,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>156</v>
+      </c>
+      <c r="F121" t="s">
         <v>157</v>
-      </c>
-      <c r="F121" t="s">
-        <v>158</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6954,10 +6936,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>158</v>
+      </c>
+      <c r="F122" t="s">
         <v>159</v>
-      </c>
-      <c r="F122" t="s">
-        <v>160</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6983,10 +6965,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>158</v>
+      </c>
+      <c r="F123" t="s">
         <v>159</v>
-      </c>
-      <c r="F123" t="s">
-        <v>160</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -7012,10 +6994,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>160</v>
+      </c>
+      <c r="F124" t="s">
         <v>161</v>
-      </c>
-      <c r="F124" t="s">
-        <v>162</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7041,10 +7023,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>160</v>
+      </c>
+      <c r="F125" t="s">
         <v>161</v>
-      </c>
-      <c r="F125" t="s">
-        <v>162</v>
       </c>
       <c r="G125" t="n">
         <v>5</v>
@@ -7070,10 +7052,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>162</v>
+      </c>
+      <c r="F126" t="s">
         <v>163</v>
-      </c>
-      <c r="F126" t="s">
-        <v>164</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7099,10 +7081,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>162</v>
+      </c>
+      <c r="F127" t="s">
         <v>163</v>
-      </c>
-      <c r="F127" t="s">
-        <v>164</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -7128,10 +7110,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>164</v>
+      </c>
+      <c r="F128" t="s">
         <v>165</v>
-      </c>
-      <c r="F128" t="s">
-        <v>166</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7157,10 +7139,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>164</v>
+      </c>
+      <c r="F129" t="s">
         <v>165</v>
-      </c>
-      <c r="F129" t="s">
-        <v>166</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -7186,10 +7168,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>166</v>
+      </c>
+      <c r="F130" t="s">
         <v>167</v>
-      </c>
-      <c r="F130" t="s">
-        <v>168</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7215,10 +7197,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>166</v>
+      </c>
+      <c r="F131" t="s">
         <v>167</v>
-      </c>
-      <c r="F131" t="s">
-        <v>168</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7244,10 +7226,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>168</v>
+      </c>
+      <c r="F132" t="s">
         <v>169</v>
-      </c>
-      <c r="F132" t="s">
-        <v>170</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7273,10 +7255,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>168</v>
+      </c>
+      <c r="F133" t="s">
         <v>169</v>
-      </c>
-      <c r="F133" t="s">
-        <v>170</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -7302,10 +7284,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>170</v>
+      </c>
+      <c r="F134" t="s">
         <v>171</v>
-      </c>
-      <c r="F134" t="s">
-        <v>172</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7331,10 +7313,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>170</v>
+      </c>
+      <c r="F135" t="s">
         <v>171</v>
-      </c>
-      <c r="F135" t="s">
-        <v>172</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7360,10 +7342,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>172</v>
+      </c>
+      <c r="F136" t="s">
         <v>173</v>
-      </c>
-      <c r="F136" t="s">
-        <v>174</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7389,10 +7371,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>172</v>
+      </c>
+      <c r="F137" t="s">
         <v>173</v>
-      </c>
-      <c r="F137" t="s">
-        <v>174</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7418,10 +7400,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>174</v>
+      </c>
+      <c r="F138" t="s">
         <v>175</v>
-      </c>
-      <c r="F138" t="s">
-        <v>176</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7447,10 +7429,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>174</v>
+      </c>
+      <c r="F139" t="s">
         <v>175</v>
-      </c>
-      <c r="F139" t="s">
-        <v>176</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7476,10 +7458,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>176</v>
+      </c>
+      <c r="F140" t="s">
         <v>177</v>
-      </c>
-      <c r="F140" t="s">
-        <v>178</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7505,10 +7487,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>176</v>
+      </c>
+      <c r="F141" t="s">
         <v>177</v>
-      </c>
-      <c r="F141" t="s">
-        <v>178</v>
       </c>
       <c r="G141" t="n">
         <v>7</v>
@@ -7534,10 +7516,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>178</v>
+      </c>
+      <c r="F142" t="s">
         <v>179</v>
-      </c>
-      <c r="F142" t="s">
-        <v>180</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7563,10 +7545,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>178</v>
+      </c>
+      <c r="F143" t="s">
         <v>179</v>
-      </c>
-      <c r="F143" t="s">
-        <v>180</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7592,10 +7574,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>180</v>
+      </c>
+      <c r="F144" t="s">
         <v>181</v>
-      </c>
-      <c r="F144" t="s">
-        <v>182</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7621,10 +7603,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>180</v>
+      </c>
+      <c r="F145" t="s">
         <v>181</v>
-      </c>
-      <c r="F145" t="s">
-        <v>182</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -7650,10 +7632,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>182</v>
+      </c>
+      <c r="F146" t="s">
         <v>183</v>
-      </c>
-      <c r="F146" t="s">
-        <v>184</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7679,10 +7661,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>182</v>
+      </c>
+      <c r="F147" t="s">
         <v>183</v>
-      </c>
-      <c r="F147" t="s">
-        <v>184</v>
       </c>
       <c r="G147" t="n">
         <v>5</v>
@@ -7708,10 +7690,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>184</v>
+      </c>
+      <c r="F148" t="s">
         <v>185</v>
-      </c>
-      <c r="F148" t="s">
-        <v>186</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7737,10 +7719,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>184</v>
+      </c>
+      <c r="F149" t="s">
         <v>185</v>
-      </c>
-      <c r="F149" t="s">
-        <v>186</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -7766,10 +7748,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>186</v>
+      </c>
+      <c r="F150" t="s">
         <v>187</v>
-      </c>
-      <c r="F150" t="s">
-        <v>188</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7795,10 +7777,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>186</v>
+      </c>
+      <c r="F151" t="s">
         <v>187</v>
-      </c>
-      <c r="F151" t="s">
-        <v>188</v>
       </c>
       <c r="G151" t="n">
         <v>5</v>
@@ -7824,10 +7806,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>188</v>
+      </c>
+      <c r="F152" t="s">
         <v>189</v>
-      </c>
-      <c r="F152" t="s">
-        <v>190</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -7853,10 +7835,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>188</v>
+      </c>
+      <c r="F153" t="s">
         <v>189</v>
-      </c>
-      <c r="F153" t="s">
-        <v>190</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -7882,10 +7864,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>190</v>
+      </c>
+      <c r="F154" t="s">
         <v>191</v>
-      </c>
-      <c r="F154" t="s">
-        <v>192</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7911,10 +7893,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>190</v>
+      </c>
+      <c r="F155" t="s">
         <v>191</v>
-      </c>
-      <c r="F155" t="s">
-        <v>192</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7940,10 +7922,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>192</v>
+      </c>
+      <c r="F156" t="s">
         <v>193</v>
-      </c>
-      <c r="F156" t="s">
-        <v>194</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7969,10 +7951,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>192</v>
+      </c>
+      <c r="F157" t="s">
         <v>193</v>
-      </c>
-      <c r="F157" t="s">
-        <v>194</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7998,10 +7980,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>194</v>
+      </c>
+      <c r="F158" t="s">
         <v>195</v>
-      </c>
-      <c r="F158" t="s">
-        <v>196</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8027,10 +8009,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>194</v>
+      </c>
+      <c r="F159" t="s">
         <v>195</v>
-      </c>
-      <c r="F159" t="s">
-        <v>196</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8056,10 +8038,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>196</v>
+      </c>
+      <c r="F160" t="s">
         <v>197</v>
-      </c>
-      <c r="F160" t="s">
-        <v>198</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8085,10 +8067,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>196</v>
+      </c>
+      <c r="F161" t="s">
         <v>197</v>
-      </c>
-      <c r="F161" t="s">
-        <v>198</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8114,10 +8096,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>198</v>
+      </c>
+      <c r="F162" t="s">
         <v>199</v>
-      </c>
-      <c r="F162" t="s">
-        <v>200</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8143,10 +8125,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>198</v>
+      </c>
+      <c r="F163" t="s">
         <v>199</v>
-      </c>
-      <c r="F163" t="s">
-        <v>200</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -8172,10 +8154,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>200</v>
+      </c>
+      <c r="F164" t="s">
         <v>201</v>
-      </c>
-      <c r="F164" t="s">
-        <v>202</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8201,10 +8183,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>200</v>
+      </c>
+      <c r="F165" t="s">
         <v>201</v>
-      </c>
-      <c r="F165" t="s">
-        <v>202</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8230,10 +8212,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>202</v>
+      </c>
+      <c r="F166" t="s">
         <v>203</v>
-      </c>
-      <c r="F166" t="s">
-        <v>204</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8259,10 +8241,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>202</v>
+      </c>
+      <c r="F167" t="s">
         <v>203</v>
-      </c>
-      <c r="F167" t="s">
-        <v>204</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8288,10 +8270,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>204</v>
+      </c>
+      <c r="F168" t="s">
         <v>205</v>
-      </c>
-      <c r="F168" t="s">
-        <v>206</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8317,10 +8299,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>204</v>
+      </c>
+      <c r="F169" t="s">
         <v>205</v>
-      </c>
-      <c r="F169" t="s">
-        <v>206</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8346,10 +8328,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>206</v>
+      </c>
+      <c r="F170" t="s">
         <v>207</v>
-      </c>
-      <c r="F170" t="s">
-        <v>208</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8375,10 +8357,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>206</v>
+      </c>
+      <c r="F171" t="s">
         <v>207</v>
-      </c>
-      <c r="F171" t="s">
-        <v>208</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8404,10 +8386,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>208</v>
+      </c>
+      <c r="F172" t="s">
         <v>209</v>
-      </c>
-      <c r="F172" t="s">
-        <v>210</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8433,10 +8415,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>208</v>
+      </c>
+      <c r="F173" t="s">
         <v>209</v>
-      </c>
-      <c r="F173" t="s">
-        <v>210</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8462,10 +8444,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>210</v>
+      </c>
+      <c r="F174" t="s">
         <v>211</v>
-      </c>
-      <c r="F174" t="s">
-        <v>212</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8491,10 +8473,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>212</v>
+      </c>
+      <c r="F175" t="s">
         <v>213</v>
-      </c>
-      <c r="F175" t="s">
-        <v>214</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8520,10 +8502,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>214</v>
+      </c>
+      <c r="F176" t="s">
         <v>215</v>
-      </c>
-      <c r="F176" t="s">
-        <v>216</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8549,10 +8531,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>216</v>
+      </c>
+      <c r="F177" t="s">
         <v>217</v>
-      </c>
-      <c r="F177" t="s">
-        <v>218</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8578,10 +8560,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>218</v>
+      </c>
+      <c r="F178" t="s">
         <v>219</v>
-      </c>
-      <c r="F178" t="s">
-        <v>220</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8607,10 +8589,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>220</v>
+      </c>
+      <c r="F179" t="s">
         <v>221</v>
-      </c>
-      <c r="F179" t="s">
-        <v>222</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8636,10 +8618,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>222</v>
+      </c>
+      <c r="F180" t="s">
         <v>223</v>
-      </c>
-      <c r="F180" t="s">
-        <v>224</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8665,10 +8647,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>224</v>
+      </c>
+      <c r="F181" t="s">
         <v>225</v>
-      </c>
-      <c r="F181" t="s">
-        <v>226</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8694,10 +8676,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>226</v>
+      </c>
+      <c r="F182" t="s">
         <v>227</v>
-      </c>
-      <c r="F182" t="s">
-        <v>228</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8723,10 +8705,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>228</v>
+      </c>
+      <c r="F183" t="s">
         <v>229</v>
-      </c>
-      <c r="F183" t="s">
-        <v>230</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8752,10 +8734,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>230</v>
+      </c>
+      <c r="F184" t="s">
         <v>231</v>
-      </c>
-      <c r="F184" t="s">
-        <v>232</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8781,10 +8763,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>232</v>
+      </c>
+      <c r="F185" t="s">
         <v>233</v>
-      </c>
-      <c r="F185" t="s">
-        <v>234</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8810,10 +8792,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>234</v>
+      </c>
+      <c r="F186" t="s">
         <v>235</v>
-      </c>
-      <c r="F186" t="s">
-        <v>236</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8839,10 +8821,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>236</v>
+      </c>
+      <c r="F187" t="s">
         <v>237</v>
-      </c>
-      <c r="F187" t="s">
-        <v>238</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8868,10 +8850,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>238</v>
+      </c>
+      <c r="F188" t="s">
         <v>239</v>
-      </c>
-      <c r="F188" t="s">
-        <v>240</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8897,10 +8879,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>240</v>
+      </c>
+      <c r="F189" t="s">
         <v>241</v>
-      </c>
-      <c r="F189" t="s">
-        <v>242</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8926,10 +8908,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>242</v>
+      </c>
+      <c r="F190" t="s">
         <v>243</v>
-      </c>
-      <c r="F190" t="s">
-        <v>244</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -8955,10 +8937,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>244</v>
+      </c>
+      <c r="F191" t="s">
         <v>245</v>
-      </c>
-      <c r="F191" t="s">
-        <v>246</v>
       </c>
       <c r="G191" t="n">
         <v>6</v>
@@ -8984,10 +8966,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>246</v>
+      </c>
+      <c r="F192" t="s">
         <v>247</v>
-      </c>
-      <c r="F192" t="s">
-        <v>248</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -9013,10 +8995,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>248</v>
+      </c>
+      <c r="F193" t="s">
         <v>249</v>
-      </c>
-      <c r="F193" t="s">
-        <v>250</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -9042,10 +9024,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>250</v>
+      </c>
+      <c r="F194" t="s">
         <v>251</v>
-      </c>
-      <c r="F194" t="s">
-        <v>252</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9071,10 +9053,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>252</v>
+      </c>
+      <c r="F195" t="s">
         <v>253</v>
-      </c>
-      <c r="F195" t="s">
-        <v>254</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9100,10 +9082,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>254</v>
+      </c>
+      <c r="F196" t="s">
         <v>255</v>
-      </c>
-      <c r="F196" t="s">
-        <v>256</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9129,10 +9111,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>256</v>
+      </c>
+      <c r="F197" t="s">
         <v>257</v>
-      </c>
-      <c r="F197" t="s">
-        <v>258</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9158,10 +9140,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>258</v>
+      </c>
+      <c r="F198" t="s">
         <v>259</v>
-      </c>
-      <c r="F198" t="s">
-        <v>260</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9187,10 +9169,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>260</v>
+      </c>
+      <c r="F199" t="s">
         <v>261</v>
-      </c>
-      <c r="F199" t="s">
-        <v>262</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9216,10 +9198,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>262</v>
+      </c>
+      <c r="F200" t="s">
         <v>263</v>
-      </c>
-      <c r="F200" t="s">
-        <v>264</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9245,10 +9227,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>264</v>
+      </c>
+      <c r="F201" t="s">
         <v>265</v>
-      </c>
-      <c r="F201" t="s">
-        <v>266</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -9274,10 +9256,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>266</v>
+      </c>
+      <c r="F202" t="s">
         <v>267</v>
-      </c>
-      <c r="F202" t="s">
-        <v>268</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -9303,10 +9285,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>268</v>
+      </c>
+      <c r="F203" t="s">
         <v>269</v>
-      </c>
-      <c r="F203" t="s">
-        <v>270</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9332,10 +9314,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>270</v>
+      </c>
+      <c r="F204" t="s">
         <v>271</v>
-      </c>
-      <c r="F204" t="s">
-        <v>272</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -9361,10 +9343,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>272</v>
+      </c>
+      <c r="F205" t="s">
         <v>273</v>
-      </c>
-      <c r="F205" t="s">
-        <v>274</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9390,10 +9372,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>274</v>
+      </c>
+      <c r="F206" t="s">
         <v>275</v>
-      </c>
-      <c r="F206" t="s">
-        <v>276</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9419,10 +9401,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>276</v>
+      </c>
+      <c r="F207" t="s">
         <v>277</v>
-      </c>
-      <c r="F207" t="s">
-        <v>278</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -9448,10 +9430,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>278</v>
+      </c>
+      <c r="F208" t="s">
         <v>279</v>
-      </c>
-      <c r="F208" t="s">
-        <v>280</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9477,10 +9459,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>280</v>
+      </c>
+      <c r="F209" t="s">
         <v>281</v>
-      </c>
-      <c r="F209" t="s">
-        <v>282</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9506,10 +9488,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>282</v>
+      </c>
+      <c r="F210" t="s">
         <v>283</v>
-      </c>
-      <c r="F210" t="s">
-        <v>284</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9535,10 +9517,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F211" t="s">
-        <v>286</v>
+        <v>51</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -9564,10 +9546,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F212" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9593,10 +9575,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F213" t="s">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9622,10 +9604,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F214" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9651,10 +9633,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F215" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9680,10 +9662,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F216" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9709,10 +9691,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F217" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -9738,10 +9720,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F218" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9767,10 +9749,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F219" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G219" t="n">
         <v>7</v>
@@ -9796,10 +9778,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F220" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9825,10 +9807,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F221" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9854,10 +9836,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F222" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9883,10 +9865,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F223" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9912,10 +9894,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F224" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9941,10 +9923,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F225" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G225" t="n">
         <v>5</v>
@@ -9970,10 +9952,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F226" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9999,10 +9981,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>240</v>
+      </c>
+      <c r="F227" t="s">
         <v>241</v>
-      </c>
-      <c r="F227" t="s">
-        <v>242</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10028,10 +10010,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F228" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10057,10 +10039,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F229" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10086,10 +10068,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F230" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10115,10 +10097,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F231" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10144,10 +10126,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F232" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -10173,10 +10155,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F233" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10202,10 +10184,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F234" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10231,10 +10213,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F235" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10260,10 +10242,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F236" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -10289,10 +10271,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F237" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10318,10 +10300,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F238" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -10347,10 +10329,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F239" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10376,10 +10358,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F240" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10405,10 +10387,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F241" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10434,10 +10416,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F242" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10463,10 +10445,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F243" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10492,10 +10474,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F244" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10521,10 +10503,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>32</v>
+      </c>
+      <c r="F245" t="s">
         <v>33</v>
-      </c>
-      <c r="F245" t="s">
-        <v>34</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10550,10 +10532,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F246" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10579,10 +10561,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F247" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10608,10 +10590,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>278</v>
+      </c>
+      <c r="F248" t="s">
         <v>279</v>
-      </c>
-      <c r="F248" t="s">
-        <v>280</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10637,10 +10619,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F249" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G249" t="n">
         <v>3</v>
@@ -10666,10 +10648,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F250" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10695,10 +10677,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F251" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10724,10 +10706,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F252" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10753,10 +10735,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F253" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -10782,10 +10764,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F254" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10811,10 +10793,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F255" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10840,10 +10822,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F256" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10869,10 +10851,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F257" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10898,10 +10880,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F258" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10927,10 +10909,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F259" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10956,10 +10938,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F260" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10985,10 +10967,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F261" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11014,10 +10996,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F262" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11043,10 +11025,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F263" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11072,10 +11054,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F264" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11101,10 +11083,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F265" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11130,10 +11112,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F266" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11159,10 +11141,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F267" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11188,10 +11170,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F268" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11217,10 +11199,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F269" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -11246,10 +11228,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F270" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -11275,10 +11257,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F271" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11304,10 +11286,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F272" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11333,10 +11315,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F273" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11362,10 +11344,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F274" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -11391,10 +11373,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F275" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11420,10 +11402,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F276" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11449,10 +11431,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F277" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11478,10 +11460,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F278" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11507,10 +11489,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F279" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11536,10 +11518,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F280" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11565,10 +11547,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F281" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11594,10 +11576,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F282" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11623,10 +11605,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F283" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11652,10 +11634,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F284" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11681,10 +11663,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F285" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G285" t="n">
         <v>4</v>
@@ -11710,10 +11692,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F286" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11739,10 +11721,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F287" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11768,10 +11750,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F288" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11797,10 +11779,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F289" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11826,10 +11808,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F290" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11855,10 +11837,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F291" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11884,10 +11866,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F292" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11913,10 +11895,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F293" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -11942,10 +11924,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F294" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11971,10 +11953,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F295" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12000,10 +11982,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F296" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12029,10 +12011,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F297" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12058,10 +12040,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F298" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12087,10 +12069,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F299" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -12116,10 +12098,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F300" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G300" t="n">
         <v>5</v>
@@ -12145,10 +12127,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F301" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G301" t="n">
         <v>3</v>
@@ -12174,10 +12156,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F302" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12203,10 +12185,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F303" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12232,10 +12214,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F304" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G304" t="n">
         <v>9</v>
@@ -12261,10 +12243,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F305" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12290,10 +12272,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F306" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12319,10 +12301,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F307" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12348,10 +12330,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F308" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12377,10 +12359,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F309" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12406,10 +12388,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F310" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12435,10 +12417,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F311" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12464,10 +12446,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F312" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12493,10 +12475,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F313" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12522,10 +12504,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F314" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12551,10 +12533,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F315" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12580,10 +12562,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F316" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12609,10 +12591,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F317" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12638,10 +12620,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F318" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12667,10 +12649,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F319" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12696,10 +12678,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F320" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12725,10 +12707,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F321" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12754,10 +12736,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F322" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12783,10 +12765,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F323" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12812,10 +12794,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F324" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12841,10 +12823,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F325" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12870,10 +12852,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F326" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12899,10 +12881,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F327" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12928,10 +12910,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F328" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12957,10 +12939,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F329" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12986,10 +12968,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F330" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13015,10 +12997,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F331" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13044,10 +13026,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F332" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13073,10 +13055,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F333" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13102,10 +13084,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F334" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13131,10 +13113,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F335" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13160,10 +13142,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F336" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13189,10 +13171,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F337" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13218,10 +13200,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F338" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13247,10 +13229,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F339" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13276,10 +13258,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F340" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13305,10 +13287,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F341" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13334,10 +13316,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F342" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13363,10 +13345,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F343" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13392,10 +13374,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F344" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13421,10 +13403,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F345" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13450,10 +13432,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F346" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13479,10 +13461,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F347" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13508,10 +13490,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F348" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13537,10 +13519,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F349" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13566,10 +13548,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F350" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13595,10 +13577,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F351" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13624,10 +13606,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F352" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13653,10 +13635,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F353" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13682,10 +13664,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F354" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13711,10 +13693,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F355" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13740,10 +13722,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F356" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13769,10 +13751,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F357" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13798,10 +13780,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F358" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13827,10 +13809,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F359" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13856,10 +13838,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F360" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13885,10 +13867,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F361" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13914,10 +13896,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F362" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13943,10 +13925,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F363" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13972,10 +13954,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F364" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14001,10 +13983,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F365" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14030,10 +14012,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F366" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14059,10 +14041,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F367" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14088,10 +14070,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F368" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14117,10 +14099,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F369" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14146,10 +14128,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F370" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G370" t="n">
         <v>3</v>
@@ -14175,10 +14157,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F371" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14204,10 +14186,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F372" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14233,10 +14215,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F373" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14262,10 +14244,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F374" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14291,10 +14273,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F375" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14320,10 +14302,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F376" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14349,10 +14331,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F377" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14378,10 +14360,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F378" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14407,10 +14389,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F379" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14436,10 +14418,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F380" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14465,10 +14447,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F381" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14494,10 +14476,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F382" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14523,10 +14505,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F383" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14552,10 +14534,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F384" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14581,10 +14563,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F385" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14610,10 +14592,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F386" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14639,10 +14621,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F387" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14668,10 +14650,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F388" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14697,10 +14679,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F389" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14726,10 +14708,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F390" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14755,10 +14737,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F391" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14784,10 +14766,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F392" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14813,10 +14795,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F393" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14842,10 +14824,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F394" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14871,10 +14853,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F395" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14900,10 +14882,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F396" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14929,10 +14911,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F397" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14958,10 +14940,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F398" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14987,10 +14969,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F399" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15016,10 +14998,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F400" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15045,10 +15027,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F401" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15074,10 +15056,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F402" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15103,10 +15085,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F403" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15132,10 +15114,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F404" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15161,10 +15143,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F405" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15190,10 +15172,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F406" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15219,10 +15201,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F407" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15248,10 +15230,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F408" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -15277,10 +15259,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F409" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15306,10 +15288,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F410" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G410" t="n">
         <v>3</v>
@@ -15335,10 +15317,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F411" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15364,10 +15346,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F412" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15393,10 +15375,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F413" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15422,10 +15404,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F414" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15451,10 +15433,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F415" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15480,10 +15462,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F416" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15509,10 +15491,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F417" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15538,10 +15520,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F418" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G418" t="n">
         <v>3</v>
@@ -15567,10 +15549,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F419" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15596,10 +15578,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F420" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G420" t="n">
         <v>6</v>
@@ -15625,10 +15607,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F421" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15654,10 +15636,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F422" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15683,10 +15665,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F423" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15712,10 +15694,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F424" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15741,10 +15723,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F425" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15770,10 +15752,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F426" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15799,10 +15781,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F427" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -15828,10 +15810,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F428" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15857,10 +15839,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F429" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15886,10 +15868,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F430" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15915,10 +15897,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F431" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15944,10 +15926,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F432" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G432" t="n">
         <v>4</v>
@@ -15973,10 +15955,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F433" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16002,10 +15984,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F434" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16031,10 +16013,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F435" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16060,10 +16042,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F436" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16089,10 +16071,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F437" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16118,10 +16100,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F438" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16147,10 +16129,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F439" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16176,10 +16158,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F440" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -16205,10 +16187,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F441" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16234,10 +16216,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F442" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16263,10 +16245,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F443" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16292,10 +16274,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F444" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -16321,10 +16303,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F445" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16350,10 +16332,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F446" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16379,10 +16361,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F447" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16408,10 +16390,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F448" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G448" t="n">
         <v>4</v>
@@ -16437,10 +16419,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F449" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16466,10 +16448,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F450" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16495,10 +16477,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F451" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16524,10 +16506,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F452" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16553,10 +16535,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F453" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16582,10 +16564,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F454" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16611,10 +16593,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F455" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16640,10 +16622,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F456" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G456" t="n">
         <v>3</v>
@@ -16669,10 +16651,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F457" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16698,10 +16680,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F458" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16727,10 +16709,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F459" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16756,10 +16738,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F460" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16785,10 +16767,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F461" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16814,10 +16796,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F462" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16843,10 +16825,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F463" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G463" t="n">
         <v>3</v>
@@ -16872,10 +16854,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F464" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G464" t="n">
         <v>12</v>
@@ -16901,10 +16883,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F465" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G465" t="n">
         <v>13</v>
@@ -16930,10 +16912,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F466" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G466" t="n">
         <v>16</v>
@@ -16959,10 +16941,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F467" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G467" t="n">
         <v>18</v>
@@ -16988,10 +16970,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F468" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G468" t="n">
         <v>40</v>
@@ -17017,10 +16999,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F469" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17046,10 +17028,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F470" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17075,10 +17057,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F471" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17104,10 +17086,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F472" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17133,10 +17115,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F473" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17162,10 +17144,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F474" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17191,10 +17173,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F475" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17220,10 +17202,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F476" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17249,10 +17231,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F477" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17278,10 +17260,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F478" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17307,10 +17289,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F479" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17336,10 +17318,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F480" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17365,10 +17347,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F481" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17394,10 +17376,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F482" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17423,10 +17405,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F483" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17452,10 +17434,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F484" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17481,10 +17463,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F485" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -17510,10 +17492,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F486" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17539,10 +17521,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F487" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17568,10 +17550,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F488" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17597,10 +17579,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F489" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17626,10 +17608,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F490" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17655,10 +17637,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F491" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17684,10 +17666,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F492" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G492" t="n">
         <v>2</v>
@@ -17713,10 +17695,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F493" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17742,10 +17724,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F494" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17771,10 +17753,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F495" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17800,10 +17782,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F496" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17829,10 +17811,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F497" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17858,10 +17840,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F498" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17887,10 +17869,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F499" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -17916,10 +17898,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F500" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17945,10 +17927,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F501" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="G501" t="n">
         <v>2</v>
@@ -17974,10 +17956,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F502" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G502" t="n">
         <v>2</v>
@@ -18003,10 +17985,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F503" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G503" t="n">
         <v>2</v>
@@ -18032,10 +18014,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F504" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18061,10 +18043,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F505" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18090,10 +18072,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F506" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18119,10 +18101,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F507" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18148,10 +18130,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F508" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G508" t="n">
         <v>2</v>
@@ -18177,10 +18159,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F509" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18206,10 +18188,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F510" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18235,10 +18217,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F511" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18264,10 +18246,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F512" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18293,10 +18275,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F513" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18322,10 +18304,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F514" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18351,10 +18333,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F515" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18380,10 +18362,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F516" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18409,10 +18391,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F517" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18438,10 +18420,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F518" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18467,10 +18449,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F519" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18496,10 +18478,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F520" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G520" t="n">
         <v>2</v>
@@ -18525,10 +18507,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F521" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18554,10 +18536,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F522" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18583,10 +18565,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F523" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G523" t="n">
         <v>2</v>
@@ -18612,10 +18594,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F524" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18641,10 +18623,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F525" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18670,10 +18652,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F526" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18699,10 +18681,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F527" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18728,10 +18710,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F528" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18757,10 +18739,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F529" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18786,10 +18768,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F530" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18815,10 +18797,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F531" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18844,10 +18826,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F532" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18873,10 +18855,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F533" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -18902,10 +18884,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F534" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -18931,10 +18913,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F535" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -18960,10 +18942,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F536" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -18989,10 +18971,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F537" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19018,10 +19000,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F538" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19047,10 +19029,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F539" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19076,10 +19058,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F540" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19105,10 +19087,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F541" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19134,10 +19116,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F542" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19163,10 +19145,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F543" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19192,10 +19174,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F544" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19221,10 +19203,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="F545" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19250,10 +19232,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F546" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19279,10 +19261,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F547" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19308,10 +19290,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F548" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19337,10 +19319,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F549" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19366,10 +19348,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F550" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19395,10 +19377,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F551" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19424,10 +19406,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F552" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19453,10 +19435,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F553" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19482,10 +19464,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F554" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19511,10 +19493,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F555" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19540,10 +19522,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="F556" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19569,10 +19551,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F557" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19598,10 +19580,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F558" t="s">
-        <v>950</v>
+        <v>295</v>
       </c>
       <c r="G558" t="n">
         <v>2</v>
@@ -19627,10 +19609,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F559" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19656,10 +19638,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="F560" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19685,10 +19667,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="F561" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19714,10 +19696,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F562" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G562" t="n">
         <v>2</v>
@@ -19743,10 +19725,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F563" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -19772,10 +19754,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F564" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -19801,10 +19783,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F565" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -19830,10 +19812,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="F566" t="s">
-        <v>966</v>
+        <v>311</v>
       </c>
       <c r="G566" t="n">
         <v>18</v>
@@ -19859,10 +19841,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F567" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -19888,10 +19870,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="F568" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -19917,10 +19899,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="F569" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -19946,10 +19928,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="F570" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -19975,10 +19957,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F571" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20004,10 +19986,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F572" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20033,10 +20015,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="F573" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20062,10 +20044,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="F574" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20091,10 +20073,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F575" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20120,10 +20102,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="F576" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20149,10 +20131,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="F577" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20178,10 +20160,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="F578" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20207,10 +20189,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="F579" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20236,10 +20218,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F580" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20265,10 +20247,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="F581" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20294,10 +20276,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="F582" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20323,10 +20305,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="F583" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G583" t="n">
         <v>2</v>
@@ -20352,10 +20334,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F584" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20381,10 +20363,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F585" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20410,10 +20392,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F586" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20439,10 +20421,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F587" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="G587" t="n">
         <v>4</v>
@@ -20468,10 +20450,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F588" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20497,10 +20479,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F589" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -20526,10 +20508,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F590" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -20555,10 +20537,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F591" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -20584,10 +20566,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F592" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="G592" t="n">
         <v>3</v>
@@ -20613,10 +20595,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="F593" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -20642,10 +20624,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F594" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -20671,10 +20653,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F595" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
